--- a/testData/defaultData.xlsx
+++ b/testData/defaultData.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12660"/>
+    <workbookView windowWidth="28800" windowHeight="12660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="orgData" sheetId="6" r:id="rId1"/>
     <sheet name="roleData" sheetId="9" r:id="rId2"/>
     <sheet name="positionData" sheetId="10" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId4"/>
+    <sheet name="orgUserData" sheetId="11" r:id="rId4"/>
+    <sheet name="generalUserData" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>orgCode</t>
   </si>
@@ -170,6 +171,180 @@
   </si>
   <si>
     <t>新增岗位6</t>
+  </si>
+  <si>
+    <t>默认机构测试用户</t>
+  </si>
+  <si>
+    <t>{
+"account": "HMM01",
+"userName": "业务经理M01",
+"telephone": "15100000001",
+"password": "e10adc3949ba59abbe56e057f20f883e",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>{
+"account": "HMM02",
+"userName": "业务经理M02",
+"telephone": "15100000002",
+"password": "e10adc3949ba59abbe56e057f20f883e",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>{
+"account": "HMM03",
+"userName": "业务经理M03",
+"telephone": "15100000003",
+"password": "e10adc3949ba59abbe56e057f20f883e",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>{
+"account": "HMM04",
+"userName": "业务经理M04",
+"telephone": "15100000004",
+"password": "e10adc3949ba59abbe56e057f20f883e",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>{
+"account": "HMM05",
+"userName": "业务经理M05",
+"telephone": "15100000005",
+"password": "e10adc3949ba59abbe56e057f20f883e",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>{
+"account": "HMM06",
+"userName": "业务经理M06",
+"telephone": "15100000006",
+"password": "e10adc3949ba59abbe56e057f20f883e",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>{
+"account": "HMM07",
+"userName": "业务经理M07",
+"telephone": "15100000007",
+"password": "e10adc3949ba59abbe56e057f20f883e",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>{
+"account": "HMM08",
+"userName": "业务经理M08",
+"telephone": "15100000008",
+"password": "e10adc3949ba59abbe56e057f20f883e",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>{
+"account": "HMM09",
+"userName": "业务经理M09",
+"telephone": "15100000009",
+"password": "e10adc3949ba59abbe56e057f20f883e",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>{
+"account": "HMM10",
+"userName": "业务经理M10",
+"telephone": "15100000010",
+"password": "e10adc3949ba59abbe56e057f20f883e",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>默认一般测试用户</t>
+  </si>
+  <si>
+    <t>{
+    "account": "PM01",
+    "userName": "借款人M01",
+    "telephone": "15900000001",
+    "password": "e10adc3949ba59abbe56e057f20f883e"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "account": "PM02",
+    "userName": "借款人M02",
+    "telephone": "15900000002",
+    "password": "e10adc3949ba59abbe56e057f20f883e"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "account": "PM03",
+    "userName": "借款人M03",
+    "telephone": "15900000003",
+    "password": "e10adc3949ba59abbe56e057f20f883e"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "account": "PM04",
+    "userName": "借款人M04",
+    "telephone": "15900000004",
+    "password": "e10adc3949ba59abbe56e057f20f883e"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "account": "PM05",
+    "userName": "借款人M05",
+    "telephone": "15900000005",
+    "password": "e10adc3949ba59abbe56e057f20f883e"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "account": "PM06",
+    "userName": "借款人M06",
+    "telephone": "15900000006",
+    "password": "e10adc3949ba59abbe56e057f20f883e"
+}</t>
   </si>
 </sst>
 </file>
@@ -177,10 +352,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -213,6 +388,49 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,8 +442,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,45 +505,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,68 +528,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -369,187 +544,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,21 +735,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -589,15 +749,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,16 +769,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,7 +787,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,6 +811,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -668,10 +843,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,137 +855,137 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,6 +996,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -834,6 +1012,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1162,10 +1343,10 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -1195,7 +1376,7 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1215,7 +1396,7 @@
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1235,7 +1416,7 @@
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1255,7 +1436,7 @@
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1275,7 +1456,7 @@
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1295,7 +1476,7 @@
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1315,7 +1496,7 @@
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1335,7 +1516,7 @@
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:6">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1355,7 +1536,7 @@
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1375,7 +1556,7 @@
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:6">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1397,7 +1578,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1406,33 +1587,33 @@
     <col min="7" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="62.4" spans="1:6">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" ht="78" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1450,22 +1631,22 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.18181818181818" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.4545454545455" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.18181818181818" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.4545454545455" style="6" customWidth="1"/>
     <col min="3" max="5" width="11.4545454545455" style="1" customWidth="1"/>
     <col min="6" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1479,104 +1660,104 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1589,29 +1770,60 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="29.7272727272727" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="6" width="11.7272727272727" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="2"/>
+    <col min="1" max="6" width="29.7272727272727" style="1" customWidth="1"/>
+    <col min="7" max="16382" width="29.7272727272727" style="2" customWidth="1"/>
+    <col min="16383" max="16384" width="29.7272727272727" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
-    <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+    <row r="1" s="1" customFormat="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="158.4" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1619,7 +1831,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1627,7 +1839,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:6">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1635,7 +1847,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1643,7 +1855,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:6">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1651,7 +1863,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:6">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1659,7 +1871,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:6">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1667,20 +1879,123 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="29.7272727272727" defaultRowHeight="15.6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="6" width="29.7272727272727" style="1" customWidth="1"/>
+    <col min="7" max="16382" width="29.7272727272727" style="2" customWidth="1"/>
+    <col min="16383" max="16384" width="29.7272727272727" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="100.8" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:6">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:6">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:6">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testData/defaultData.xlsx
+++ b/testData/defaultData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12660" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="orgData" sheetId="6" r:id="rId1"/>
@@ -353,9 +353,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -384,29 +384,84 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,8 +474,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,46 +506,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -481,32 +513,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,21 +534,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -550,181 +550,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,17 +753,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,11 +786,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,177 +835,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,12 +1341,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="5"/>
@@ -1554,14 +1554,6 @@
       <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:6">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1578,7 +1570,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1772,10 +1764,10 @@
   <sheetPr/>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.7272727272727" defaultRowHeight="15.6"/>
